--- a/scripts/scripto/data/toc.xlsx
+++ b/scripts/scripto/data/toc.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_utda/genji/scripts/scripto/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/d_genji/genji/scripts/scripto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0B343089-70CC-CC47-A27C-180ED3BDBFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A09924-2E8C-EF48-B093-3CF81415C142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33100" yWindow="4440" windowWidth="28300" windowHeight="17040"/>
+    <workbookView xWindow="38400" yWindow="4440" windowWidth="28300" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outputのコピー" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>さわらひ</t>
     <phoneticPr fontId="18"/>
@@ -365,11 +375,15 @@
     <t>project id</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21">
     <font>
       <sz val="12"/>
@@ -1345,11 +1359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1357,7 +1371,7 @@
     <col min="4" max="4" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1376,8 +1390,11 @@
       <c r="F1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1397,8 +1414,12 @@
       <c r="F2">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G11" si="1">"["""&amp;B2&amp;""", "&amp;A2&amp;", "&amp;C2&amp;"],"</f>
+        <v>["すま", 12, 391],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>13</v>
       </c>
@@ -1418,8 +1439,12 @@
       <c r="F3">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>["あかし", 13, 437],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>14</v>
       </c>
@@ -1439,8 +1464,12 @@
       <c r="F4">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>["みをつくし", 14, 479],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1460,8 +1489,12 @@
       <c r="F5">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>["よもきふ", 15, 515],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1481,8 +1514,12 @@
       <c r="F6">
         <v>273</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>["せきや", 16, 543],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>17</v>
       </c>
@@ -1502,8 +1539,12 @@
       <c r="F7">
         <v>274</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>["ゑあはせ", 17, 553],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>18</v>
       </c>
@@ -1523,8 +1564,12 @@
       <c r="F8">
         <v>275</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>["松かせ", 18, 575],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>19</v>
       </c>
@@ -1544,8 +1589,12 @@
       <c r="F9">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>["うす雲", 19, 599],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>20</v>
       </c>
@@ -1565,8 +1614,12 @@
       <c r="F10">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>["あさかほ", 20, 635],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>21</v>
       </c>
@@ -1586,8 +1639,12 @@
       <c r="F11">
         <v>278</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>["をとめ", 21, 661],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>22</v>
       </c>
@@ -1607,8 +1664,12 @@
       <c r="F12">
         <v>279</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G43" si="2">"["""&amp;B12&amp;""", "&amp;A12&amp;", "&amp;C12&amp;"],"</f>
+        <v>["玉かつら", 22, 715],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>23</v>
       </c>
@@ -1628,8 +1689,12 @@
       <c r="F13">
         <v>280</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>["初音", 23, 759],</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1649,8 +1714,12 @@
       <c r="F14">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>["こてふ", 24, 777],</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>25</v>
       </c>
@@ -1670,8 +1739,12 @@
       <c r="F15">
         <v>236</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>["ほたる", 25, 801],</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>26</v>
       </c>
@@ -1691,8 +1764,12 @@
       <c r="F16">
         <v>237</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>["とこなつ", 26, 825],</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>27</v>
       </c>
@@ -1712,8 +1789,12 @@
       <c r="F17">
         <v>238</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>["かゝり火", 27, 851],</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1733,8 +1814,12 @@
       <c r="F18">
         <v>239</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>["野わき", 28, 859],</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>29</v>
       </c>
@@ -1754,8 +1839,12 @@
       <c r="F19">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>["みゆき", 29, 881],</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>30</v>
       </c>
@@ -1775,8 +1864,12 @@
       <c r="F20">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>["藤はかま", 30, 913],</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>31</v>
       </c>
@@ -1796,8 +1889,12 @@
       <c r="F21">
         <v>242</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>["まきはしら", 31, 931],</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>32</v>
       </c>
@@ -1817,8 +1914,12 @@
       <c r="F22">
         <v>243</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>["梅かえ", 32, 971],</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>33</v>
       </c>
@@ -1838,8 +1939,12 @@
       <c r="F23">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>["藤のうらは", 33, 993],</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>34</v>
       </c>
@@ -1859,8 +1964,12 @@
       <c r="F24">
         <v>245</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>["わかな上", 34, 1021],</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>35</v>
       </c>
@@ -1880,8 +1989,12 @@
       <c r="F25">
         <v>246</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>["わかな下", 35, 1121],</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>36</v>
       </c>
@@ -1901,8 +2014,12 @@
       <c r="F26">
         <v>222</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>["かしは木", 36, 1223],</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>37</v>
       </c>
@@ -1922,8 +2039,12 @@
       <c r="F27">
         <v>223</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>["よこ笛", 37, 1265],</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>38</v>
       </c>
@@ -1943,8 +2064,12 @@
       <c r="F28">
         <v>224</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>["すゝむし", 38, 1287],</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>39</v>
       </c>
@@ -1964,8 +2089,12 @@
       <c r="F29">
         <v>225</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>["夕きり", 39, 1305],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>40</v>
       </c>
@@ -1985,8 +2114,12 @@
       <c r="F30">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>["みのり", 40, 1377],</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>41</v>
       </c>
@@ -2006,8 +2139,12 @@
       <c r="F31">
         <v>227</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>["まほろし", 41, 1399],</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>42</v>
       </c>
@@ -2027,8 +2164,12 @@
       <c r="F32">
         <v>228</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>["にほふ兵部卿", 42, 1425],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>43</v>
       </c>
@@ -2048,8 +2189,12 @@
       <c r="F33">
         <v>229</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>["こうはい", 43, 1443],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>44</v>
       </c>
@@ -2069,8 +2214,12 @@
       <c r="F34">
         <v>230</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>["たけ川", 44, 1459],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>45</v>
       </c>
@@ -2090,8 +2239,12 @@
       <c r="F35">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>["はし姬", 45, 1503],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>46</v>
       </c>
@@ -2111,8 +2264,12 @@
       <c r="F36">
         <v>232</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>["しゐかもと", 46, 1543],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>47</v>
       </c>
@@ -2132,8 +2289,12 @@
       <c r="F37">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>["あけまき", 47, 1583],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>48</v>
       </c>
@@ -2153,8 +2314,12 @@
       <c r="F38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>["さわらひ", 48, 1673],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>49</v>
       </c>
@@ -2168,14 +2333,18 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39:E44" si="1">C39+4</f>
+        <f t="shared" ref="E39:E44" si="3">C39+4</f>
         <v>1701</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>["やとり木", 49, 1697],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>50</v>
       </c>
@@ -2189,14 +2358,18 @@
         <v>12</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1793</v>
       </c>
       <c r="F40" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>["あつまや", 50, 1789],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>51</v>
       </c>
@@ -2210,14 +2383,18 @@
         <v>13</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1859</v>
       </c>
       <c r="F41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>["うき舟", 51, 1855],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>52</v>
       </c>
@@ -2231,14 +2408,18 @@
         <v>14</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1931</v>
       </c>
       <c r="F42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>["かけろふ", 52, 1927],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>53</v>
       </c>
@@ -2252,14 +2433,18 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1989</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>["てならひ", 53, 1985],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>54</v>
       </c>
@@ -2273,59 +2458,63 @@
         <v>16</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2055</v>
       </c>
       <c r="F44">
         <v>10</v>
+      </c>
+      <c r="G44" t="str">
+        <f>"["""&amp;B44&amp;""", "&amp;A44&amp;", "&amp;C44&amp;"],"</f>
+        <v>["夢のうきはし", 54, 2051],</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1"/>
-    <hyperlink ref="D39" r:id="rId2"/>
-    <hyperlink ref="D40" r:id="rId3"/>
-    <hyperlink ref="D41" r:id="rId4"/>
-    <hyperlink ref="D42" r:id="rId5"/>
-    <hyperlink ref="D43" r:id="rId6"/>
-    <hyperlink ref="D44" r:id="rId7"/>
-    <hyperlink ref="D2" r:id="rId8"/>
-    <hyperlink ref="D3" r:id="rId9"/>
-    <hyperlink ref="D4" r:id="rId10"/>
-    <hyperlink ref="D5" r:id="rId11"/>
-    <hyperlink ref="D6" r:id="rId12"/>
-    <hyperlink ref="D7" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="D9" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16"/>
-    <hyperlink ref="D11" r:id="rId17"/>
-    <hyperlink ref="D12" r:id="rId18"/>
-    <hyperlink ref="D13" r:id="rId19"/>
-    <hyperlink ref="D14" r:id="rId20"/>
-    <hyperlink ref="D15" r:id="rId21"/>
-    <hyperlink ref="D16" r:id="rId22"/>
-    <hyperlink ref="D17" r:id="rId23"/>
-    <hyperlink ref="D18" r:id="rId24"/>
-    <hyperlink ref="D19" r:id="rId25"/>
-    <hyperlink ref="D20" r:id="rId26"/>
-    <hyperlink ref="D21" r:id="rId27"/>
-    <hyperlink ref="D22" r:id="rId28"/>
-    <hyperlink ref="D23" r:id="rId29"/>
-    <hyperlink ref="D24" r:id="rId30"/>
-    <hyperlink ref="D25" r:id="rId31"/>
-    <hyperlink ref="D26" r:id="rId32"/>
-    <hyperlink ref="D27" r:id="rId33"/>
-    <hyperlink ref="D28" r:id="rId34"/>
-    <hyperlink ref="D29" r:id="rId35"/>
-    <hyperlink ref="D30" r:id="rId36"/>
-    <hyperlink ref="D31" r:id="rId37"/>
-    <hyperlink ref="D32" r:id="rId38"/>
-    <hyperlink ref="D33" r:id="rId39"/>
-    <hyperlink ref="D34" r:id="rId40"/>
-    <hyperlink ref="D35" r:id="rId41"/>
-    <hyperlink ref="D36" r:id="rId42"/>
-    <hyperlink ref="D37" r:id="rId43"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D39" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D40" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D43" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D44" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D23" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D24" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D25" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D26" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D34" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D36" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D37" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
